--- a/PO/ExcelPO/saasuser.xlsx
+++ b/PO/ExcelPO/saasuser.xlsx
@@ -58,7 +58,7 @@
       <sz val="16"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -68,6 +68,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -83,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -112,6 +117,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -505,17 +512,17 @@
           <t>tewrert</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D1" s="9" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
         <is>
           <t>tewrert</t>
         </is>
@@ -723,7 +730,7 @@
       </c>
     </row>
     <row r="5" ht="22.2" customHeight="1" s="3">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>tewrert</t>
         </is>
@@ -9874,7 +9881,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="13" t="inlineStr">
         <is>
           <t>tewrert</t>
         </is>

--- a/PO/ExcelPO/saasuser.xlsx
+++ b/PO/ExcelPO/saasuser.xlsx
@@ -11,9 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="saasuser" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'saasuser1'!$C$2</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -21,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <name val="宋体"/>
       <family val="2"/>
@@ -45,18 +43,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="微软雅黑"/>
-      <color rgb="00000000"/>
-      <sz val="16"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -72,7 +58,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ff0000"/>
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -88,7 +74,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -97,27 +83,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -203,7 +168,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -484,880 +449,274 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8.88671875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="22.44140625" customWidth="1" style="3" min="2" max="2"/>
-    <col width="19.33203125" customWidth="1" style="3" min="3" max="3"/>
-    <col width="22.88671875" customWidth="1" style="3" min="4" max="4"/>
-    <col width="24.77734375" customWidth="1" style="3" min="5" max="5"/>
-    <col width="31.33203125" customWidth="1" style="3" min="6" max="6"/>
-    <col width="8.88671875" customWidth="1" style="3" min="7" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="3" min="1" max="10"/>
+    <col width="8.88671875" customWidth="1" style="3" min="11" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.2" customHeight="1" s="3">
-      <c r="A1" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F1" s="8" t="inlineStr">
-        <is>
-          <t>jinhao</t>
-        </is>
-      </c>
-      <c r="G1" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H1" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I1" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J1" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K1" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="22.2" customHeight="1" s="3">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F2" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="G2" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="22.2" customHeight="1" s="3">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="G3" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H3" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J3" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K3" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="22.2" customHeight="1" s="3">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H4" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I4" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J4" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K4" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="22.2" customHeight="1" s="3">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H5" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I5" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J5" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K5" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="22.2" customHeight="1" s="3">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E6" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="G6" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H6" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I6" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K6" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="22.2" customHeight="1" s="3">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H7" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I7" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J7" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K7" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="22.2" customHeight="1" s="3">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K8" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="22.2" customHeight="1" s="3">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C9" s="11" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D9" s="11" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E9" s="11" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="G9" s="11" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H9" s="11" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I9" s="11" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J9" s="11" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K9" s="11" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="22.2" customHeight="1" s="3">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J10" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K10" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="22.2" customHeight="1" s="3">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I11" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="22.2" customHeight="1" s="3">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="G12" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J12" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K12" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="22.2" customHeight="1" s="3">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="22.2" customHeight="1" s="3">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E14" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I14" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="22.2" customHeight="1" s="3">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="I15" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="J15" s="8" t="inlineStr">
-        <is>
-          <t>tewrert</t>
-        </is>
-      </c>
-      <c r="K15" s="8" t="inlineStr">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>tewrert</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>tewrert</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
@@ -1391,10 +750,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="20" customWidth="1" style="3" min="1" max="8"/>
   </cols>
@@ -9644,10 +9003,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -9881,7 +9240,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>tewrert</t>
         </is>
@@ -10505,6 +9864,188 @@
         <is>
           <t>tewrert</t>
         </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="n">
+        <v>7</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="n">
+        <v>8</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="n">
+        <v>11</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="n">
+        <v>12</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="n">
+        <v>13</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="n">
+        <v>14</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
